--- a/webroot/assets/example_surveys/all_widgets.xlsx
+++ b/webroot/assets/example_surveys/all_widgets.xlsx
@@ -506,122 +506,122 @@
 All available widgets follow. They should work in all current and fairly many older browsers.</t>
   </si>
   <si>
+    <t>mc_multiple coolness</t>
+  </si>
+  <si>
+    <t>mc_multiple_many</t>
+  </si>
+  <si>
+    <t>### mc_multiple
+mc_multiple or multiple-multiple-choice/checkboxes. Now you can select several choices. The choices appear comma-separated in the results. By specifying `!` in the `optional` column we force users to choose at least one option.</t>
+  </si>
+  <si>
+    <t>### MSELECT
+`mselect` is a different way to display `mc_multiple`.</t>
+  </si>
+  <si>
+    <t>rating_button 1,5,1</t>
+  </si>
+  <si>
+    <t>rating_button</t>
+  </si>
+  <si>
+    <t>### rating_button 5
+This item shows the first choice, then the numbers specified in the `type` column (here: 1 to 5), then the second choice.</t>
+  </si>
+  <si>
+    <t>select_or_add_one</t>
+  </si>
+  <si>
+    <t>select_or_add_multiple</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>select_one studiengaenge</t>
+  </si>
+  <si>
+    <t>range_ticks 1,5,1</t>
+  </si>
+  <si>
+    <t>### range_ticks 1,5,1
+You can make sliders with this item type.By defining two choices, you can also label the slider's poles.  
+Range uses the same options as `number`. 
+`range_ticks` shows 'ticks', i.e. marks for every useable value on the scale. Thus, it doesn't make sense to use range_ticks for very large ranges.</t>
+  </si>
+  <si>
+    <t>### RANGE 1,100,1
+Same as `range_ticks` without ticks.</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>### geopoint
+So this item saves the GPS coordinates, which can from actual GPS or e.g. Google's WiFi database etc.</t>
+  </si>
+  <si>
+    <t>showif</t>
+  </si>
+  <si>
+    <t>confirm1 == 1</t>
+  </si>
+  <si>
+    <t>check_button</t>
+  </si>
+  <si>
+    <t>mc_multiple_button</t>
+  </si>
+  <si>
+    <t>### mc_multiple_button
+An `mc_multiple` field with larger buttons.</t>
+  </si>
+  <si>
+    <t># TEL
+For telephone numbers. Most devices don't do anything special with this yet, but it might show a numeric dial pad on a phone or even bring up the phonebook.</t>
+  </si>
+  <si>
+    <t># URL
+For internet addresses</t>
+  </si>
+  <si>
+    <t>mc_button</t>
+  </si>
+  <si>
+    <t>### mc_button
+An `mc` field with larger buttons.</t>
+  </si>
+  <si>
+    <t>### `select_or_add_multiple`
+What are your favourite TV series? If you need more choices (why would you), just add our own.</t>
+  </si>
+  <si>
+    <t>### `select_or_add_one`
+What's your favourite TV series? If you need more choices (why would you), just add our own.</t>
+  </si>
+  <si>
+    <t>### check_button
+Like `check` with a larger button.
+This one has a skipIf: `confirm1 = 1`, so it will only be displayed if you checked that you wanted to be bothered with another question.  
+We can also use expressions like the one above to dynamically alter question text. For example, we can tell you that your preferred movies were `r all_widgets$m_fav_tv_series`.
+Skipifs can also refer to surveys that were answered before this one in the run.</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>### MC_HEADING
+A standard format for economising space in paper-pencil, value for online studies doubtful?</t>
+  </si>
+  <si>
     <t>## note
 This note will only appear once, because notes that are followed by further notes or submission buttons are hidden after being displayed once.
 #### by the way
 In Excel you can make linebreaks using Strg+Enter (Windows) or Alt+Apple+Enter (Mac).
 In the `label` column you can use HTML und [Markdown](http://daringfireball.net/projects/markdown/syntax) and `knitr`. A line break in markdown is a little different: The line before the break has to end with two spaces.  
 You can start a new paragraph using a blank line.
-Make text _bold__ through  `__bold__`, make it *italic* through `*italic*`.</t>
-  </si>
-  <si>
-    <t>mc_multiple coolness</t>
-  </si>
-  <si>
-    <t>mc_multiple_many</t>
-  </si>
-  <si>
-    <t>### mc_multiple
-mc_multiple or multiple-multiple-choice/checkboxes. Now you can select several choices. The choices appear comma-separated in the results. By specifying `!` in the `optional` column we force users to choose at least one option.</t>
-  </si>
-  <si>
-    <t>### MSELECT
-`mselect` is a different way to display `mc_multiple`.</t>
-  </si>
-  <si>
-    <t>rating_button 1,5,1</t>
-  </si>
-  <si>
-    <t>rating_button</t>
-  </si>
-  <si>
-    <t>### rating_button 5
-This item shows the first choice, then the numbers specified in the `type` column (here: 1 to 5), then the second choice.</t>
-  </si>
-  <si>
-    <t>select_or_add_one</t>
-  </si>
-  <si>
-    <t>select_or_add_multiple</t>
-  </si>
-  <si>
-    <t>select_multiple</t>
-  </si>
-  <si>
-    <t>select_one studiengaenge</t>
-  </si>
-  <si>
-    <t>range_ticks 1,5,1</t>
-  </si>
-  <si>
-    <t>### range_ticks 1,5,1
-You can make sliders with this item type.By defining two choices, you can also label the slider's poles.  
-Range uses the same options as `number`. 
-`range_ticks` shows 'ticks', i.e. marks for every useable value on the scale. Thus, it doesn't make sense to use range_ticks for very large ranges.</t>
-  </si>
-  <si>
-    <t>### RANGE 1,100,1
-Same as `range_ticks` without ticks.</t>
-  </si>
-  <si>
-    <t>geopoint</t>
-  </si>
-  <si>
-    <t>### geopoint
-So this item saves the GPS coordinates, which can from actual GPS or e.g. Google's WiFi database etc.</t>
-  </si>
-  <si>
-    <t>showif</t>
-  </si>
-  <si>
-    <t>confirm1 == 1</t>
-  </si>
-  <si>
-    <t>check_button</t>
-  </si>
-  <si>
-    <t>mc_multiple_button</t>
-  </si>
-  <si>
-    <t>### mc_multiple_button
-An `mc_multiple` field with larger buttons.</t>
-  </si>
-  <si>
-    <t># TEL
-For telephone numbers. Most devices don't do anything special with this yet, but it might show a numeric dial pad on a phone or even bring up the phonebook.</t>
-  </si>
-  <si>
-    <t># URL
-For internet addresses</t>
-  </si>
-  <si>
-    <t>mc_button</t>
-  </si>
-  <si>
-    <t>### mc_button
-An `mc` field with larger buttons.</t>
-  </si>
-  <si>
-    <t>### `select_or_add_multiple`
-What are your favourite TV series? If you need more choices (why would you), just add our own.</t>
-  </si>
-  <si>
-    <t>### `select_or_add_one`
-What's your favourite TV series? If you need more choices (why would you), just add our own.</t>
-  </si>
-  <si>
-    <t>### check_button
-Like `check` with a larger button.
-This one has a skipIf: `confirm1 = 1`, so it will only be displayed if you checked that you wanted to be bothered with another question.  
-We can also use expressions like the one above to dynamically alter question text. For example, we can tell you that your preferred movies were `r all_widgets$m_fav_tv_series`.
-Skipifs can also refer to surveys that were answered before this one in the run.</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>### MC_HEADING
-A standard format for economising space in paper-pencil, value for online studies doubtful?</t>
+Make text __bold__ through  `__bold__`, make it *italic* through `*italic*`.</t>
   </si>
 </sst>
 </file>
@@ -1080,8 +1080,8 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1112,7 +1112,7 @@
         <v>86</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>32</v>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="8" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45">
@@ -1243,32 +1243,32 @@
         <v>44</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60">
       <c r="C10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>122</v>
@@ -1333,14 +1333,14 @@
         <v>42</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>117</v>
@@ -1354,7 +1354,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>41</v>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>2</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="C18" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -1405,14 +1405,14 @@
     </row>
     <row r="19" spans="1:10" ht="45">
       <c r="C19" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>15</v>
@@ -1444,14 +1444,14 @@
     </row>
     <row r="22" spans="1:10" ht="30">
       <c r="C22" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>126</v>
@@ -1462,14 +1462,14 @@
     </row>
     <row r="23" spans="1:10" ht="30">
       <c r="C23" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="3"/>
       <c r="G23" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>143</v>
@@ -1538,7 +1538,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>130</v>
@@ -1552,7 +1552,7 @@
         <v>57</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>58</v>
@@ -1566,7 +1566,7 @@
         <v>51</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>48</v>
@@ -1580,7 +1580,7 @@
         <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>61</v>
@@ -1594,7 +1594,7 @@
         <v>54</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>55</v>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="E38" s="3"/>
       <c r="G38" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="E39" s="3"/>
       <c r="G39" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1641,7 +1641,7 @@
         <v>79</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>76</v>
@@ -1664,14 +1664,14 @@
     </row>
     <row r="43" spans="1:8" ht="45">
       <c r="C43" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E43" s="3"/>
       <c r="G43" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30">
@@ -1715,14 +1715,14 @@
     </row>
     <row r="48" spans="1:8" ht="45">
       <c r="C48" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E48" s="3"/>
       <c r="G48" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>71</v>
@@ -1730,14 +1730,14 @@
     </row>
     <row r="49" spans="2:12" ht="45">
       <c r="C49" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="3"/>
       <c r="G49" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>71</v>
@@ -1784,7 +1784,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>136</v>
@@ -1884,16 +1884,16 @@
     </row>
     <row r="60" spans="2:12" ht="195">
       <c r="C60" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/webroot/assets/example_surveys/all_widgets.xlsx
+++ b/webroot/assets/example_surveys/all_widgets.xlsx
@@ -1081,7 +1081,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/webroot/assets/example_surveys/all_widgets.xlsx
+++ b/webroot/assets/example_surveys/all_widgets.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="185">
   <si>
     <t>mc</t>
   </si>
@@ -622,6 +622,9 @@
 In the `label` column you can use HTML und [Markdown](http://daringfireball.net/projects/markdown/syntax) and `knitr`. A line break in markdown is a little different: The line before the break has to end with two spaces.  
 You can start a new paragraph using a blank line.
 Make text __bold__ through  `__bold__`, make it *italic* through `*italic*`.</t>
+  </si>
+  <si>
+    <t>range_ticks 1,7,1</t>
   </si>
 </sst>
 </file>
@@ -1080,8 +1083,8 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1354,7 +1357,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>41</v>

--- a/webroot/assets/example_surveys/all_widgets.xlsx
+++ b/webroot/assets/example_surveys/all_widgets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25040" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -615,16 +615,16 @@
 A standard format for economising space in paper-pencil, value for online studies doubtful?</t>
   </si>
   <si>
+    <t>range_ticks 1,7,1</t>
+  </si>
+  <si>
     <t>## note
 This note will only appear once, because notes that are followed by further notes or submission buttons are hidden after being displayed once.
 #### by the way
-In Excel you can make linebreaks using Strg+Enter (Windows) or Alt+Apple+Enter (Mac).
-In the `label` column you can use HTML und [Markdown](http://daringfireball.net/projects/markdown/syntax) and `knitr`. A line break in markdown is a little different: The line before the break has to end with two spaces.  
-You can start a new paragraph using a blank line.
+In Excel you can make linebreaks using Strg+Enter (Windows) or Alt+Apple+Enter (Mac). 
+You can start a new paragraph by using a blank line.
+In the `label` column you can use HTML und [Markdown](http://daringfireball.net/projects/markdown/syntax) and `knitr`.
 Make text __bold__ through  `__bold__`, make it *italic* through `*italic*`.</t>
-  </si>
-  <si>
-    <t>range_ticks 1,7,1</t>
   </si>
 </sst>
 </file>
@@ -1083,8 +1083,8 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1139,7 +1139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="255">
+    <row r="2" spans="1:12" ht="225">
       <c r="C2" s="8" t="s">
         <v>151</v>
       </c>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45">
@@ -1357,7 +1357,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>41</v>

--- a/webroot/assets/example_surveys/all_widgets.xlsx
+++ b/webroot/assets/example_surveys/all_widgets.xlsx
@@ -109,9 +109,6 @@
     <t>eigenschaften</t>
   </si>
   <si>
-    <t>onlyonce</t>
-  </si>
-  <si>
     <t>confirm1</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
 You can start a new paragraph by using a blank line.
 In the `label` column you can use HTML und [Markdown](http://daringfireball.net/projects/markdown/syntax) and `knitr`.
 Make text __bold__ through  `__bold__`, make it *italic* through `*italic*`.</t>
+  </si>
+  <si>
+    <t>note_shown_only_once</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1103,64 +1103,64 @@
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="18">
       <c r="A1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="225">
       <c r="C2" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45">
       <c r="C3" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1171,29 +1171,29 @@
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="C5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="B6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90">
@@ -1204,11 +1204,11 @@
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>22</v>
@@ -1222,20 +1222,20 @@
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="105">
@@ -1243,41 +1243,41 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60">
       <c r="C10" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="75">
@@ -1292,13 +1292,13 @@
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="75">
@@ -1310,22 +1310,22 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="180">
       <c r="C13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1333,89 +1333,89 @@
     </row>
     <row r="15" spans="1:12" ht="135">
       <c r="B15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30">
       <c r="B16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="G16" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="B17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30">
       <c r="C18" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="45">
       <c r="C19" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="3"/>
       <c r="G19" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>15</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1442,55 +1442,55 @@
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30">
       <c r="C22" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30">
       <c r="C23" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="3"/>
       <c r="G23" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H23" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="45">
       <c r="C24" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="3"/>
       <c r="G24" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1508,26 +1508,26 @@
     </row>
     <row r="28" spans="1:10" ht="30">
       <c r="C28" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="3"/>
       <c r="G28" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="45">
       <c r="C29" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="3"/>
       <c r="G29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1541,66 +1541,66 @@
         <v>20</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="C32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="C33" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="C34" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="C35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1608,58 +1608,58 @@
     </row>
     <row r="37" spans="1:8" ht="45">
       <c r="A37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="75">
       <c r="C38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="E38" s="3"/>
       <c r="G38" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30">
       <c r="C39" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="3"/>
       <c r="G39" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="C40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="C41" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E41" s="3"/>
       <c r="G41" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1667,50 +1667,50 @@
     </row>
     <row r="43" spans="1:8" ht="45">
       <c r="C43" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="3"/>
       <c r="G43" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30">
       <c r="C44" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="E44" s="3"/>
       <c r="G44" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="C45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="E45" s="3"/>
       <c r="G45" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="45">
       <c r="C46" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="3"/>
       <c r="G46" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1718,32 +1718,32 @@
     </row>
     <row r="48" spans="1:8" ht="45">
       <c r="C48" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E48" s="3"/>
       <c r="G48" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="45">
       <c r="C49" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="3"/>
       <c r="G49" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="2:12">
@@ -1758,15 +1758,15 @@
     <row r="53" spans="2:12" ht="30">
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -1776,95 +1776,95 @@
     </row>
     <row r="54" spans="2:12" ht="60">
       <c r="B54" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H54" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45">
       <c r="B55" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="56" spans="2:12" ht="45">
       <c r="B56" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="L56" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="57" spans="2:12">
@@ -1875,28 +1875,28 @@
     </row>
     <row r="59" spans="2:12">
       <c r="C59" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E59" s="3"/>
       <c r="G59" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="195">
       <c r="C60" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1927,19 +1927,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1990,21 +1990,21 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/webroot/assets/example_surveys/all_widgets.xlsx
+++ b/webroot/assets/example_surveys/all_widgets.xlsx
@@ -11,7 +11,7 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$G$43:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$G$42:$G$45</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="184">
   <si>
     <t>mc</t>
   </si>
   <si>
-    <t>multiplechoice_many</t>
-  </si>
-  <si>
     <t>cool</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>freakig</t>
   </si>
   <si>
-    <t>rating</t>
-  </si>
-  <si>
     <t>nix</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
   </si>
   <si>
     <t>slider_list</t>
-  </si>
-  <si>
-    <t>slider_list2</t>
   </si>
   <si>
     <t>left500</t>
@@ -344,9 +335,6 @@
     <t>yourstory</t>
   </si>
   <si>
-    <t>beginning</t>
-  </si>
-  <si>
     <t>abode</t>
   </si>
   <si>
@@ -354,19 +342,12 @@
 Where do you live?</t>
   </si>
   <si>
-    <t>religion</t>
-  </si>
-  <si>
     <t>### MC
 &lt;sup title="If you can't make up your mind, you probably want to click Cthulhu." class="hastooltip"&gt;&lt;i class="icon-circle-blank"&gt;&lt;/i&gt;&lt;/sup&gt;  A simple multiple-choice question with two choices (and a hint).</t>
   </si>
   <si>
     <t>### MC
 A multiple-choice/radio button question with more choices. We can give more spaces to the choices by specifying a [CSS](http://reference.sitepoint.com/css) class in the `class` column.</t>
-  </si>
-  <si>
-    <t>### MC
-If you leave all but the first and the last choices text fields empty, the first choice is automatically placed to the left rather than to the right of its radio button.</t>
   </si>
   <si>
     <t>### Email addresses are automatically checked in newer browsers
@@ -625,6 +606,21 @@
   </si>
   <si>
     <t>note_shown_only_once</t>
+  </si>
+  <si>
+    <t>note_for_items_to_follow</t>
+  </si>
+  <si>
+    <t>multiplechoice_several</t>
+  </si>
+  <si>
+    <t>mc_religion</t>
+  </si>
+  <si>
+    <t>your_email</t>
+  </si>
+  <si>
+    <t>slider_list_longer</t>
   </si>
 </sst>
 </file>
@@ -1080,11 +1076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1103,476 +1099,469 @@
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="18">
       <c r="A1" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="225">
       <c r="C2" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45">
       <c r="C3" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="B6" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="90">
       <c r="A8" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="105">
       <c r="A9" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60">
       <c r="C10" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75">
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="180">
+      <c r="C12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="G12" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="135">
+      <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="75">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="G11" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="75">
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="180">
-      <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="G13" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="135">
+      <c r="H14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30">
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="8" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30">
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3"/>
       <c r="G16" s="8" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
-      <c r="B17" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="C17" s="8" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3"/>
       <c r="G17" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45">
       <c r="C18" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="45">
-      <c r="C19" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="J18" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="E19" s="3"/>
-      <c r="G19" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="10" t="s">
-        <v>38</v>
+    </row>
+    <row r="20" spans="1:10" ht="45">
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="45">
+      <c r="G20" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30">
       <c r="C21" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="E21" s="3"/>
       <c r="G21" s="8" t="s">
-        <v>124</v>
+        <v>170</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30">
       <c r="C22" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45">
       <c r="C23" s="8" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="3"/>
       <c r="G23" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="45">
-      <c r="C24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="E24" s="3"/>
-      <c r="G24" s="8" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="33">
+      <c r="A26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="33">
-      <c r="A27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="12"/>
+    <row r="27" spans="1:10" ht="30">
+      <c r="C27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="30">
+      <c r="G27" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45">
       <c r="C28" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E28" s="3"/>
       <c r="G28" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="45">
-      <c r="C29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="E29" s="3"/>
-      <c r="G29" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="30">
+    </row>
+    <row r="30" spans="1:10" ht="30">
+      <c r="C30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="C31" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="C32" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="C33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1580,171 +1569,160 @@
         <v>49</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="C35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="45">
+      <c r="A36" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="45">
-      <c r="A37" s="8" t="s">
-        <v>72</v>
+    <row r="37" spans="1:8" ht="75">
+      <c r="C37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="75">
+      <c r="G37" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30">
       <c r="C38" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E38" s="3"/>
       <c r="G38" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="C39" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="G39" s="8" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="C40" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>180</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E40" s="3"/>
       <c r="G40" s="8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="C41" s="8" t="s">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="45">
+      <c r="C42" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="G42" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30">
+      <c r="C43" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="G41" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="45">
-      <c r="C43" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E43" s="3"/>
       <c r="G43" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="C44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E44" s="3"/>
       <c r="G44" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="45">
       <c r="C45" s="8" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E45" s="3"/>
       <c r="G45" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="45">
-      <c r="C46" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="E46" s="3"/>
-      <c r="G46" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+    </row>
+    <row r="47" spans="1:8" ht="45">
+      <c r="C47" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="E47" s="3"/>
+      <c r="G47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="45">
       <c r="C48" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E48" s="3"/>
       <c r="G48" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="45">
-      <c r="C49" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
       <c r="E49" s="3"/>
-      <c r="G49" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="50" spans="2:12">
       <c r="E50" s="3"/>
@@ -1752,155 +1730,152 @@
     <row r="51" spans="2:12">
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" ht="30">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="2:12" ht="30">
-      <c r="B53" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" ht="60">
+      <c r="B53" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="C53" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="2:12" ht="60">
+      <c r="L53" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="45">
       <c r="B54" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45">
       <c r="B55" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" ht="45">
-      <c r="B56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>99</v>
-      </c>
+    </row>
+    <row r="56" spans="2:12">
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="57" spans="2:12">
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="2:12">
+      <c r="C58" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="2:12">
+      <c r="G58" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="195">
       <c r="C59" s="8" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="G59" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" ht="195">
-      <c r="C60" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G43:G46"/>
+  <autoFilter ref="G42:G45"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1927,25 +1902,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1953,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1961,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1969,7 +1944,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1977,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1985,26 +1960,26 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/webroot/assets/example_surveys/all_widgets.xlsx
+++ b/webroot/assets/example_surveys/all_widgets.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="209">
   <si>
     <t>mc</t>
   </si>
@@ -31,24 +31,6 @@
     <t>cool</t>
   </si>
   <si>
-    <t>uncool</t>
-  </si>
-  <si>
-    <t>semi-cool</t>
-  </si>
-  <si>
-    <t>nerdig</t>
-  </si>
-  <si>
-    <t>geekig</t>
-  </si>
-  <si>
-    <t>freakig</t>
-  </si>
-  <si>
-    <t>nix</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -58,9 +40,6 @@
     <t>slider</t>
   </si>
   <si>
-    <t>studiengang</t>
-  </si>
-  <si>
     <t>partner</t>
   </si>
   <si>
@@ -82,21 +61,12 @@
     <t>monat</t>
   </si>
   <si>
-    <t>TIME SECTION</t>
-  </si>
-  <si>
     <t>spaghetti monster</t>
   </si>
   <si>
     <t>cthulhu</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>geschlecht</t>
-  </si>
-  <si>
     <t>btnmc</t>
   </si>
   <si>
@@ -133,9 +103,6 @@
     <t>range 1,100,1</t>
   </si>
   <si>
-    <t>(Zeilen ohne Variablenname werden ignoriert und können zur Strukturierung benutzt werden.)</t>
-  </si>
-  <si>
     <t>slider_list</t>
   </si>
   <si>
@@ -232,9 +199,6 @@
     <t>m_fav_tv_series</t>
   </si>
   <si>
-    <t>OTHER NEW HTML 5 TYPES</t>
-  </si>
-  <si>
     <t>tel</t>
   </si>
   <si>
@@ -280,22 +244,7 @@
     <t>label</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>mc coolness</t>
-  </si>
-  <si>
     <t>list_name</t>
-  </si>
-  <si>
-    <t>coolness</t>
-  </si>
-  <si>
-    <t>jura</t>
-  </si>
-  <si>
-    <t>studiengaenge</t>
   </si>
   <si>
     <t>browser</t>
@@ -350,18 +299,6 @@
 A multiple-choice/radio button question with more choices. We can give more spaces to the choices by specifying a [CSS](http://reference.sitepoint.com/css) class in the `class` column.</t>
   </si>
   <si>
-    <t>### Email addresses are automatically checked in newer browsers
-Enter your email address. This field is optional, as you can tell by the `*` in the `optional` column in item spreadsheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">### NUMBER 1,130,1
-Enter your age in years.  
-Numbers can of course be restricted through parameters in the `type`-column:  
-`number minimum,maximum,step`  
-where `step` is the unit/smallest possible step and defaults to 1. To allow arbitrary accuracy, step has to be `any`.
-Should you want to specify just a minimum or just a maximum, or just a step, leave the commas in place, e.g. `number ,120,1` </t>
-  </si>
-  <si>
     <t>and another one.</t>
   </si>
   <si>
@@ -384,14 +321,6 @@
   </si>
   <si>
     <t>a short text</t>
-  </si>
-  <si>
-    <t>### SELECT
-`select` is a different way to display `mc`.</t>
-  </si>
-  <si>
-    <t>### SEX
-A simple `mc` field with symbols for male and female.</t>
   </si>
   <si>
     <t>stop</t>
@@ -471,27 +400,10 @@
     <t>age</t>
   </si>
   <si>
-    <t>jurassic</t>
-  </si>
-  <si>
-    <t>triassic</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
-    <t>## note
-All available widgets follow. They should work in all current and fairly many older browsers.</t>
-  </si>
-  <si>
-    <t>mc_multiple coolness</t>
-  </si>
-  <si>
     <t>mc_multiple_many</t>
-  </si>
-  <si>
-    <t>### mc_multiple
-mc_multiple or multiple-multiple-choice/checkboxes. Now you can select several choices. The choices appear comma-separated in the results. By specifying `!` in the `optional` column we force users to choose at least one option.</t>
   </si>
   <si>
     <t>### MSELECT
@@ -504,10 +416,6 @@
     <t>rating_button</t>
   </si>
   <si>
-    <t>### rating_button 5
-This item shows the first choice, then the numbers specified in the `type` column (here: 1 to 5), then the second choice.</t>
-  </si>
-  <si>
     <t>select_or_add_one</t>
   </si>
   <si>
@@ -515,9 +423,6 @@
   </si>
   <si>
     <t>select_multiple</t>
-  </si>
-  <si>
-    <t>select_one studiengaenge</t>
   </si>
   <si>
     <t>range_ticks 1,5,1</t>
@@ -536,10 +441,6 @@
     <t>geopoint</t>
   </si>
   <si>
-    <t>### geopoint
-So this item saves the GPS coordinates, which can from actual GPS or e.g. Google's WiFi database etc.</t>
-  </si>
-  <si>
     <t>showif</t>
   </si>
   <si>
@@ -571,63 +472,243 @@
 An `mc` field with larger buttons.</t>
   </si>
   <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>### MC_HEADING
+A standard format for economising space in paper-pencil, value for online studies doubtful?</t>
+  </si>
+  <si>
+    <t>range_ticks 1,7,1</t>
+  </si>
+  <si>
+    <t>note_shown_only_once</t>
+  </si>
+  <si>
+    <t>note_for_items_to_follow</t>
+  </si>
+  <si>
+    <t>multiplechoice_several</t>
+  </si>
+  <si>
+    <t>mc_religion</t>
+  </si>
+  <si>
+    <t>your_email</t>
+  </si>
+  <si>
+    <t>slider_list_longer</t>
+  </si>
+  <si>
     <t>### `select_or_add_multiple`
-What are your favourite TV series? If you need more choices (why would you), just add our own.</t>
-  </si>
-  <si>
-    <t>### `select_or_add_one`
-What's your favourite TV series? If you need more choices (why would you), just add our own.</t>
+What are your favourite TV series? If you need more choices (why would you), just add your own.</t>
+  </si>
+  <si>
+    <t>### geopoint
+So this item saves the GPS coordinates, which can be taken from actual GPS or e.g. Google's WiFi database etc.</t>
+  </si>
+  <si>
+    <t>explanations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### mc_multiple
+mc_multiple or multiple-multiple-choice/checkboxes. Now you can select several choices. The choices appear comma-separated in the results. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### Email addresses are automatically checked in newer browsers
+Enter your email address. </t>
+  </si>
+  <si>
+    <t>This item shows the first choice (specified in column `choice1`), then the numbers specified in the `type` column (`1,5,1`= min,max,step; in this case the numbers 1,2,3,4 and 5 will be displayed ), then the second choice (specified in column `choice2`).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### rating_button 5
+You may want to use rating-buttons as item-type for your studies, because they look nice and are easy to handle.
+</t>
+  </si>
+  <si>
+    <t>By specifying `*` in the `optional` column users can skip the question without being forced to answer it.
+Using `*` for all your items during testing saves time, because you can skip the items without answering them. Of course you have to remember to remove the `*` that are not needed before you invite users to participate.</t>
+  </si>
+  <si>
+    <t>You may have noticed the second sheet `choices`in this excel-file. In this sheet you can find the columns `list_name`,`name` and `label`. This is an alternate way to specify the items possible choices. Please switch to the `choices`-sheet to learn more.</t>
+  </si>
+  <si>
+    <t>By specifying `!` in the `optional` column you force users to choose at least one option.</t>
+  </si>
+  <si>
+    <t>date 01.01.2012, now (date min, max): The definition of min, max is optional. In this case users can choose dates between 01.01.2012 and the present date(now).</t>
+  </si>
+  <si>
+    <t>By adding `FALSE` to the `showif`column, you can hide the item.</t>
+  </si>
+  <si>
+    <t>This one has a showIf: `confirm1 == 1`. `confirm1`is the name of the item you are referring to. `=1` is the value the item `confirm1` must have if the item `confirm2` shall be displayed.  In this case `confirm2` will only be displayed if you checked that you wanted to be bothered with another question (because that is what `confirm1` asks). Another example: If you wanted to show this item to persons that are over 18 years old only, you would have to set the `showif` to: `age =&gt;18`. 
+Showifs can also refer to surveys that were answered before this one in the run.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### NUMBER 1,130,1
+Enter your age in years.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numbers can of course be restricted through parameters in the `type`-column:  
+`number minimum,maximum,step` 
+where `step` is the unit/smallest possible step and defaults to 1. 
+To allow arbitrary accuracy, step has to be `any`.
+Should you want to specify just a minimum or just a maximum, or just a step, leave the commas in place, e.g. `number ,120,1` </t>
+  </si>
+  <si>
+    <t xml:space="preserve">formr won´t be able to read this column, so it won´t change anything. If you like, you can add more columns  for structuring or for translating side-by-side etc.
+If you want to know more about columns, please visit  the documentation page (https://formr.org/public/documentation#sample_survey_sheet).
+</t>
   </si>
   <si>
     <t>### check_button
 Like `check` with a larger button.
-This one has a skipIf: `confirm1 = 1`, so it will only be displayed if you checked that you wanted to be bothered with another question.  
-We can also use expressions like the one above to dynamically alter question text. For example, we can tell you that your preferred movies were `r all_widgets$m_fav_tv_series`.
-Skipifs can also refer to surveys that were answered before this one in the run.</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>### MC_HEADING
-A standard format for economising space in paper-pencil, value for online studies doubtful?</t>
-  </si>
-  <si>
-    <t>range_ticks 1,7,1</t>
-  </si>
-  <si>
-    <t>## note
+This will only be displayed if you checked that you wanted to be bothered with another question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## note
 This note will only appear once, because notes that are followed by further notes or submission buttons are hidden after being displayed once.
-#### by the way
+</t>
+  </si>
+  <si>
+    <t>#### by the way
 In Excel you can make linebreaks using Strg+Enter (Windows) or Alt+Apple+Enter (Mac). 
 You can start a new paragraph by using a blank line.
 In the `label` column you can use HTML und [Markdown](http://daringfireball.net/projects/markdown/syntax) and `knitr`.
-Make text __bold__ through  `__bold__`, make it *italic* through `*italic*`.</t>
-  </si>
-  <si>
-    <t>note_shown_only_once</t>
-  </si>
-  <si>
-    <t>note_for_items_to_follow</t>
-  </si>
-  <si>
-    <t>multiplechoice_several</t>
-  </si>
-  <si>
-    <t>mc_religion</t>
-  </si>
-  <si>
-    <t>your_email</t>
-  </si>
-  <si>
-    <t>slider_list_longer</t>
+Make text __bold__ through  `__bold__`, make it *italic* through `*italic*`.
+## note
+All available widgets follow. They should work in all current and fairly many older browsers.</t>
+  </si>
+  <si>
+    <t>mc many_choices</t>
+  </si>
+  <si>
+    <t>mc_multiple many_choices</t>
+  </si>
+  <si>
+    <t>many_choices</t>
+  </si>
+  <si>
+    <t>one choice</t>
+  </si>
+  <si>
+    <t>another choice</t>
+  </si>
+  <si>
+    <t>choices all around</t>
+  </si>
+  <si>
+    <t>Every item with `many_choices` in its `type`column(`survey`sheet)  will get the choices defined in the `label`column of this sheet. 
+The column `name` in this sheet defines what type of information the program will get from your users answers - in this case, the answer `one choice` would be counted as a `1` in your results, `another choice`would be a `2` and so on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using a separate `choices`sheet can be very useful if you have a lot of possible choices that would push the boundaries of the `choices`columns in the `survey`sheet (exceeding 12). </t>
+  </si>
+  <si>
+    <t>Have a look at the `survey`sheet. Items with `time_period` in the `type`column also have their choices defined in this sheet. So, as you can see, there is no need to write something in the `choice` columns in the `survey`sheet for this item.</t>
+  </si>
+  <si>
+    <t>time_periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quaternary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neogene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paleogene </t>
+  </si>
+  <si>
+    <t>Cretaceous</t>
+  </si>
+  <si>
+    <t>Jurassic</t>
+  </si>
+  <si>
+    <t>Triassic</t>
+  </si>
+  <si>
+    <t>Permian</t>
+  </si>
+  <si>
+    <t>Carboniferous</t>
+  </si>
+  <si>
+    <t>Devonian</t>
+  </si>
+  <si>
+    <t>Silurian</t>
+  </si>
+  <si>
+    <t>Ordovician</t>
+  </si>
+  <si>
+    <t>Cambrian</t>
+  </si>
+  <si>
+    <t>select_one time_periods</t>
+  </si>
+  <si>
+    <t>time_period</t>
+  </si>
+  <si>
+    <t>### SELECT
+`select` is a different way to display `mc`.
+You could use it when you have many choices, e.g. when were you born?</t>
+  </si>
+  <si>
+    <t>### `select_or_add_one`
+What's your favourite TV series? If you need more choices (why would you), just add your own by typing into the search field and pressing enter.</t>
+  </si>
+  <si>
+    <t>BBC Life</t>
+  </si>
+  <si>
+    <t>cretaceous</t>
+  </si>
+  <si>
+    <t>jurassic</t>
+  </si>
+  <si>
+    <t>triassic</t>
+  </si>
+  <si>
+    <t>permian</t>
+  </si>
+  <si>
+    <t>carboniferous</t>
+  </si>
+  <si>
+    <t>devonian</t>
+  </si>
+  <si>
+    <t>silurian</t>
+  </si>
+  <si>
+    <t>ordovician</t>
+  </si>
+  <si>
+    <t>cambrian</t>
+  </si>
+  <si>
+    <t>quaternary</t>
+  </si>
+  <si>
+    <t>neogene</t>
+  </si>
+  <si>
+    <t>paleogene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -686,6 +767,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF69A12B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF69A12B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF69A12B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -704,7 +808,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -712,8 +816,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -734,23 +846,62 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF69A12B"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1076,231 +1227,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="31.1640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="43.33203125" style="8" customWidth="1"/>
     <col min="8" max="12" width="10.83203125" style="8"/>
     <col min="13" max="13" width="10.83203125" style="9"/>
     <col min="14" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="18">
-      <c r="A1" s="6" t="s">
-        <v>85</v>
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="225">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="210">
+      <c r="A2" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="C2" s="8" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="225">
       <c r="C3" s="8" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="8" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E5" s="3"/>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="8" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" s="8" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="90">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="105">
+      <c r="A8" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="105">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="75">
       <c r="B9" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="8" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="60">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="120">
+      <c r="A10" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="75">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45">
       <c r="C11" s="8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="180">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="195">
+      <c r="A12" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="G12" s="8" t="s">
-        <v>108</v>
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1308,201 +1471,243 @@
     </row>
     <row r="14" spans="1:12" ht="135">
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="8" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30">
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30">
       <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G16" s="8" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60">
       <c r="C17" s="8" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G17" s="8" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="45">
       <c r="C18" s="8" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G18" s="8" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="165">
+      <c r="A21" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45">
+      <c r="A22" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="45">
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="G20" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30">
-      <c r="C21" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="G21" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30">
-      <c r="C22" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="E22" s="3"/>
+      <c r="F22" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G22" s="8" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="45">
       <c r="C23" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E23" s="3"/>
+      <c r="F23" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G23" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="270">
+      <c r="A24" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="E24" s="3"/>
+      <c r="D24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="33">
-      <c r="A26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="10"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="30">
       <c r="C27" s="8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E27" s="3"/>
+      <c r="F27" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G27" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="75">
+      <c r="A28" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="C28" s="8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3"/>
+      <c r="F28" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G28" s="8" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1510,215 +1715,258 @@
     </row>
     <row r="30" spans="1:10" ht="30">
       <c r="C30" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>174</v>
+        <v>142</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45">
+      <c r="A31" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="C31" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>174</v>
+        <v>142</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="C32" s="8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="3:9" ht="75">
+      <c r="C37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="30">
+      <c r="C38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="C33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="D40" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="C34" s="8" t="s">
+    </row>
+    <row r="41" spans="3:9">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="3:9" ht="60">
+      <c r="C42" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E42" s="3"/>
+      <c r="F42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="30">
+      <c r="C43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="45">
-      <c r="A36" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="75">
-      <c r="C37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="G37" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30">
-      <c r="C38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="G38" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="C39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="C40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="G40" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="45">
-      <c r="C42" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="G42" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30">
-      <c r="C43" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E43" s="3"/>
       <c r="G43" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
       <c r="C44" s="8" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E44" s="3"/>
       <c r="G44" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="45">
       <c r="C45" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E45" s="3"/>
       <c r="G45" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9">
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="45">
+    <row r="47" spans="3:9" ht="60">
       <c r="C47" s="8" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E47" s="3"/>
+      <c r="F47" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G47" s="8" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="45">
       <c r="C48" s="8" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E48" s="3"/>
+      <c r="F48" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G48" s="8" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:12">
@@ -1733,15 +1981,17 @@
     <row r="52" spans="2:12" ht="30">
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G52" s="4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -1751,95 +2001,101 @@
     </row>
     <row r="53" spans="2:12" ht="60">
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G53" s="3" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="45">
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G54" s="3" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="45">
       <c r="B55" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G55" s="3" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="2:12">
@@ -1850,28 +2106,14 @@
     </row>
     <row r="58" spans="2:12">
       <c r="C58" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E58" s="3"/>
       <c r="G58" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" ht="195">
-      <c r="C59" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1888,98 +2130,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C9:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>87</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="149.25" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3">
+      <c r="D2" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4">
+      <c r="D3" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>90</v>
+      <c r="D4" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="75">
+      <c r="A8" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="90">
+      <c r="A9" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
